--- a/schedule/schedule_N-03_C-updated_I-019.xlsx
+++ b/schedule/schedule_N-03_C-updated_I-019.xlsx
@@ -322,19 +322,19 @@
     <t>T30040</t>
   </si>
   <si>
+    <t>T30050</t>
+  </si>
+  <si>
     <t>R12020</t>
   </si>
   <si>
-    <t>T30050</t>
-  </si>
-  <si>
     <t>T32010</t>
   </si>
   <si>
+    <t>T32020</t>
+  </si>
+  <si>
     <t>T35010</t>
-  </si>
-  <si>
-    <t>T32020</t>
   </si>
   <si>
     <t>T35020</t>
@@ -725,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BM36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:65">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -921,8 +921,11 @@
       <c r="BL1" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:64">
+      <c r="BM1" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:65">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1018,62 +1021,62 @@
       <c r="AT3" t="s">
         <v>96</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>98</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>100</v>
       </c>
-      <c r="AW3" t="s">
-        <v>102</v>
-      </c>
       <c r="AX3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY3" t="s">
         <v>39</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>43</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>49</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>52</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>53</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>55</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>56</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>58</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>60</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>64</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>67</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>68</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>71</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>72</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:65">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1155,62 +1158,62 @@
       <c r="AT4" t="s">
         <v>96</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>98</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>100</v>
       </c>
-      <c r="AW4" t="s">
-        <v>102</v>
-      </c>
       <c r="AX4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY4" t="s">
         <v>39</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>43</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>49</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>52</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>53</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>55</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>56</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>58</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>60</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>64</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>67</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>68</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>71</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>72</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:65">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1298,56 +1301,56 @@
       <c r="AV5" t="s">
         <v>100</v>
       </c>
-      <c r="AW5" t="s">
-        <v>102</v>
-      </c>
       <c r="AX5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY5" t="s">
         <v>39</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>43</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>49</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>52</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>53</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>55</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>56</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>58</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>60</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>64</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>67</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>68</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>71</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>72</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:65">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:65">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:65">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1409,20 +1412,20 @@
       <c r="AG8" t="s">
         <v>67</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>68</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>71</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>72</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:64">
+    <row r="9" spans="1:65">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1462,20 +1465,20 @@
       <c r="AG9" t="s">
         <v>67</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>68</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>71</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>72</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:64">
+    <row r="10" spans="1:65">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:64">
+    <row r="11" spans="1:65">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1532,17 +1535,17 @@
       <c r="AH11" t="s">
         <v>68</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>71</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>72</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:64">
+    <row r="12" spans="1:65">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:64">
+    <row r="13" spans="1:65">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:64">
+    <row r="14" spans="1:65">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:65">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:64">
+    <row r="16" spans="1:65">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:64">
+    <row r="17" spans="1:65">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1835,65 +1838,65 @@
       <c r="AS17" t="s">
         <v>93</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>96</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>98</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>100</v>
       </c>
-      <c r="AW17" t="s">
-        <v>102</v>
-      </c>
       <c r="AX17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY17" t="s">
         <v>39</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>43</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>49</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>52</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>53</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>55</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>56</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>58</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>60</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
         <v>64</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>67</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>68</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>71</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
         <v>72</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BM17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:64">
+    <row r="18" spans="1:65">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:64">
+    <row r="19" spans="1:65">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:64">
+    <row r="20" spans="1:65">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:64">
+    <row r="21" spans="1:65">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:64">
+    <row r="22" spans="1:65">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:64">
+    <row r="23" spans="1:65">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:64">
+    <row r="24" spans="1:65">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2297,10 +2300,10 @@
         <v>100</v>
       </c>
       <c r="AX24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:64">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2398,16 +2401,16 @@
         <v>101</v>
       </c>
       <c r="AW25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AX25" t="s">
         <v>104</v>
       </c>
       <c r="AY25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:64">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2486,56 +2489,56 @@
       <c r="AS26" t="s">
         <v>93</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>96</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>98</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>100</v>
       </c>
-      <c r="AW26" t="s">
-        <v>102</v>
-      </c>
       <c r="AX26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AY26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>107</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>108</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>109</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>110</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>111</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
         <v>112</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>113</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
         <v>114</v>
       </c>
-      <c r="BG26" t="s">
+      <c r="BH26" t="s">
         <v>115</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BI26" t="s">
         <v>116</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BJ26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:64">
+    <row r="27" spans="1:65">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2581,17 +2584,17 @@
       <c r="AH27" t="s">
         <v>68</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>71</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>72</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:64">
+    <row r="28" spans="1:65">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:64">
+    <row r="29" spans="1:65">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:64">
+    <row r="30" spans="1:65">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:64">
+    <row r="31" spans="1:65">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:64">
+    <row r="32" spans="1:65">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2768,17 +2771,17 @@
       <c r="AH32" t="s">
         <v>68</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AJ32" t="s">
         <v>71</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AK32" t="s">
         <v>72</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AL32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:38">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2815,23 +2818,23 @@
       <c r="AE33" t="s">
         <v>64</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
         <v>67</v>
       </c>
-      <c r="AH33" t="s">
+      <c r="AI33" t="s">
         <v>68</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AJ33" t="s">
         <v>71</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AK33" t="s">
         <v>72</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AL33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:38">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:38">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2882,23 +2885,23 @@
       <c r="AE35" t="s">
         <v>64</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AH35" t="s">
         <v>67</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
         <v>68</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AJ35" t="s">
         <v>71</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AK35" t="s">
         <v>72</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AL35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:38">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2941,16 +2944,16 @@
       <c r="AG36" t="s">
         <v>67</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AI36" t="s">
         <v>68</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AJ36" t="s">
         <v>71</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AK36" t="s">
         <v>72</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AL36" t="s">
         <v>75</v>
       </c>
     </row>
